--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D823A8D-FB1C-482E-BBC7-86FF7448E3F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD6189B-FAFA-471A-870B-94A65C71574C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Dato</t>
   </si>
@@ -162,10 +162,13 @@
     <t>Rewiev af DD</t>
   </si>
   <si>
-    <t>Krydstjek</t>
-  </si>
-  <si>
     <t>1.30</t>
+  </si>
+  <si>
+    <t>Krydstjek af 01</t>
+  </si>
+  <si>
+    <t>Krydstjek af 01 dag 2 har lavet om på AD01 så  det passer lidt bedre</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -358,12 +361,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -372,6 +369,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -753,12 +757,13 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="53.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="80.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="31" style="16" customWidth="1"/>
@@ -768,16 +773,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -806,10 +811,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="12">
@@ -818,10 +823,10 @@
       <c r="D3" s="13">
         <v>0.375</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <v>30</v>
       </c>
       <c r="G3" s="5">
@@ -834,10 +839,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="12">
@@ -849,7 +854,7 @@
       <c r="E4" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>30</v>
       </c>
       <c r="G4" s="5">
@@ -862,10 +867,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="12">
@@ -874,59 +879,79 @@
       <c r="D5" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="25" t="s">
-        <v>43</v>
+      <c r="E5" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>-0.54166666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(G$3:G5)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43886</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -940,7 +965,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -954,7 +979,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -968,7 +993,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -982,7 +1007,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -996,7 +1021,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1008,7 +1033,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1020,7 +1045,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1032,7 +1057,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1044,7 +1069,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1056,7 +1081,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1068,7 +1093,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1080,7 +1105,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1092,7 +1117,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1104,7 +1129,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1116,7 +1141,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1128,7 +1153,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1139,7 +1164,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1150,7 +1175,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1161,7 +1186,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1172,7 +1197,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1183,7 +1208,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1194,7 +1219,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1205,7 +1230,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1216,7 +1241,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>-0.45833333333333331</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1291,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,13 +1326,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD6189B-FAFA-471A-870B-94A65C71574C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF0182-29F4-4862-BA50-E668C4987D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Dato</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Krydstjek af 01 dag 2 har lavet om på AD01 så  det passer lidt bedre</t>
+  </si>
+  <si>
+    <t>Lavet AD01</t>
+  </si>
+  <si>
+    <t>Planlæg kundemøde 2</t>
   </si>
 </sst>
 </file>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,30 +818,28 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12">
-        <v>43885</v>
+        <v>43881</v>
       </c>
       <c r="D3" s="13">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="21">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F3" s="22">
-        <v>30</v>
-      </c>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F3" s="22"/>
       <c r="G3" s="5">
-        <f>E3-D3</f>
-        <v>4.1666666666666685E-2</v>
+        <f t="shared" ref="G3:G10" si="0">E3-D3</f>
+        <v>0.16666666666666669</v>
       </c>
       <c r="H3" s="1">
         <f>SUM(G$3:G3)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -849,26 +853,26 @@
         <v>43885</v>
       </c>
       <c r="D4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="13">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.45833333333333331</v>
       </c>
       <c r="F4" s="23">
         <v>30</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(G$3:G4)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>30</v>
@@ -877,84 +881,109 @@
         <v>43885</v>
       </c>
       <c r="D5" s="13">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>42</v>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F5" s="23">
+        <v>30</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(G$3:G5)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="D6" s="13">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E6" s="13">
-        <v>0.42708333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>5.2083333333333315E-2</v>
+        <v>0.125</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.26041666666666663</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.26041666666666663</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="F8" s="23">
+        <v>30</v>
+      </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.680555555555558E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -965,7 +994,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -979,7 +1008,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -988,12 +1017,12 @@
       <c r="E11" s="15"/>
       <c r="F11" s="19"/>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G11:G32" si="1">E11-D11</f>
         <v>0</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1002,12 +1031,12 @@
       <c r="E12" s="15"/>
       <c r="F12" s="19"/>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1016,232 +1045,232 @@
       <c r="E13" s="15"/>
       <c r="F13" s="19"/>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="F14" s="19"/>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="F15" s="19"/>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="F16" s="19"/>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="F17" s="19"/>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="F18" s="19"/>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="F19" s="19"/>
       <c r="G19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="F20" s="19"/>
       <c r="G20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="F21" s="19"/>
       <c r="G21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="F22" s="19"/>
       <c r="G22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="F23" s="19"/>
       <c r="G23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="F24" s="19"/>
       <c r="G24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="G25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="G26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="14"/>
       <c r="G27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="14"/>
       <c r="G28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
       <c r="G29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
       <c r="G30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
       <c r="G31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
       <c r="G32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.26041666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1316,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF0182-29F4-4862-BA50-E668C4987D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308CFE2-912D-4FF7-A410-A459997B9AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Dato</t>
   </si>
@@ -175,6 +178,21 @@
   </si>
   <si>
     <t>Planlæg kundemøde 2</t>
+  </si>
+  <si>
+    <t>Forberedelse til brugertest</t>
+  </si>
+  <si>
+    <t>Kundemøde første del</t>
+  </si>
+  <si>
+    <t>Kundemøde Anden del</t>
+  </si>
+  <si>
+    <t>Dom04</t>
+  </si>
+  <si>
+    <t>Dom04 Færdig</t>
   </si>
 </sst>
 </file>
@@ -325,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -357,7 +375,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,32 +780,32 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31" style="16" customWidth="1"/>
-    <col min="6" max="6" width="31" style="20" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="31" style="15" customWidth="1"/>
+    <col min="6" max="6" width="31" style="19" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -806,7 +823,7 @@
       <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -817,10 +834,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12">
@@ -829,10 +846,10 @@
       <c r="D3" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G10" si="0">E3-D3</f>
         <v>0.16666666666666669</v>
@@ -843,10 +860,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="12">
@@ -858,7 +875,7 @@
       <c r="E4" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>30</v>
       </c>
       <c r="G4" s="5">
@@ -871,10 +888,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="12">
@@ -886,7 +903,7 @@
       <c r="E5" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>30</v>
       </c>
       <c r="G5" s="5">
@@ -899,10 +916,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="12">
@@ -914,7 +931,7 @@
       <c r="E6" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="5">
@@ -927,10 +944,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12">
@@ -942,7 +959,7 @@
       <c r="E7" s="13">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="5">
@@ -955,10 +972,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="12">
@@ -970,7 +987,7 @@
       <c r="E8" s="13">
         <v>0.60763888888888895</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>30</v>
       </c>
       <c r="G8" s="5">
@@ -983,206 +1000,255 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="12">
+        <v>43887</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="F9" s="22"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.51388888888888884</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="12">
+        <v>43887</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.51388888888888884</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="12">
+        <v>43887</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="5">
         <f t="shared" ref="G11:G32" si="1">E11-D11</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.51388888888888884</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="12">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.51388888888888884</v>
+        <v>0.71527777777777768</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="12">
+        <v>43888</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1193,7 +1259,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1204,7 +1270,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1215,7 +1281,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1226,7 +1292,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1237,7 +1303,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1248,7 +1314,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1259,7 +1325,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1270,7 +1336,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.51388888888888884</v>
+        <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1355,13 +1421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308CFE2-912D-4FF7-A410-A459997B9AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C3F52-90FA-4E0B-A321-E2C6D962A292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Dato</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Rewiev af DD</t>
   </si>
   <si>
-    <t>1.30</t>
-  </si>
-  <si>
     <t>Krydstjek af 01</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>Dom04 Færdig</t>
+  </si>
+  <si>
+    <t>Krydstjek 04</t>
+  </si>
+  <si>
+    <t>Rewiev af SD0102 og DCD0102</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -400,6 +403,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -780,7 +787,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +842,7 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>8</v>
@@ -875,8 +882,8 @@
       <c r="E4" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F4" s="22">
-        <v>30</v>
+      <c r="F4" s="26">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
@@ -903,8 +910,8 @@
       <c r="E5" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="22">
-        <v>30</v>
+      <c r="F5" s="26">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
@@ -917,7 +924,7 @@
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>30</v>
@@ -931,8 +938,8 @@
       <c r="E6" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>42</v>
+      <c r="F6" s="26">
+        <v>6.25E-2</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
@@ -945,7 +952,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>8</v>
@@ -959,8 +966,8 @@
       <c r="E7" s="13">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
+      <c r="F7" s="26">
+        <v>6.25E-2</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
@@ -973,7 +980,7 @@
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>15</v>
@@ -987,8 +994,8 @@
       <c r="E8" s="13">
         <v>0.60763888888888895</v>
       </c>
-      <c r="F8" s="22">
-        <v>30</v>
+      <c r="F8" s="26">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -1001,7 +1008,7 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="12">
@@ -1025,7 +1032,7 @@
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="12">
@@ -1049,7 +1056,7 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="12">
@@ -1073,7 +1080,7 @@
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="12">
@@ -1097,7 +1104,7 @@
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="12">
@@ -1120,27 +1127,57 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="12">
+        <v>43889</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.81944444444444431</v>
+        <v>0.87152777777777768</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43889</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="F15" s="26">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1152,7 +1189,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1164,7 +1201,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1176,7 +1213,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1188,7 +1225,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1200,7 +1237,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1212,7 +1249,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1224,7 +1261,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1236,7 +1273,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1248,7 +1285,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1259,7 +1296,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1270,7 +1307,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1281,7 +1318,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1292,7 +1329,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1303,7 +1340,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1314,7 +1351,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1325,7 +1362,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1336,7 +1373,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.81944444444444431</v>
+        <v>0.8784722222222221</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C3F52-90FA-4E0B-A321-E2C6D962A292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9158116-24D5-4EF5-8683-AFC41034659B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Dato</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Rewiev af SD0102 og DCD0102</t>
+  </si>
+  <si>
+    <t>Fremstilling af  DCD0802</t>
+  </si>
+  <si>
+    <t>Fremstilling af SD0802</t>
   </si>
 </sst>
 </file>
@@ -397,16 +403,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -786,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,16 +809,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -882,7 +888,7 @@
       <c r="E4" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G4" s="5">
@@ -910,7 +916,7 @@
       <c r="E5" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G5" s="5">
@@ -938,7 +944,7 @@
       <c r="E6" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>6.25E-2</v>
       </c>
       <c r="G6" s="5">
@@ -966,7 +972,7 @@
       <c r="E7" s="13">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <v>6.25E-2</v>
       </c>
       <c r="G7" s="5">
@@ -994,7 +1000,7 @@
       <c r="E8" s="13">
         <v>0.60763888888888895</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G8" s="5">
@@ -1134,13 +1140,13 @@
       <c r="C14" s="12">
         <v>43889</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>0.44791666666666669</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G14" s="5">
@@ -1162,13 +1168,13 @@
       <c r="C15" s="12">
         <v>43889</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>0.49652777777777773</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G15" s="5">
@@ -1181,30 +1187,58 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="14"/>
+      <c r="A16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43892</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43892</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="F18" s="18"/>
       <c r="G18" s="5">
@@ -1213,10 +1247,10 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="F19" s="18"/>
       <c r="G19" s="5">
@@ -1225,10 +1259,10 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="F20" s="18"/>
       <c r="G20" s="5">
@@ -1237,10 +1271,10 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="F21" s="18"/>
       <c r="G21" s="5">
@@ -1249,10 +1283,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="F22" s="18"/>
       <c r="G22" s="5">
@@ -1261,10 +1295,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="F23" s="18"/>
       <c r="G23" s="5">
@@ -1273,10 +1307,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="F24" s="18"/>
       <c r="G24" s="5">
@@ -1285,10 +1319,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
@@ -1296,10 +1330,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
@@ -1307,10 +1341,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="14"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
@@ -1318,10 +1352,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="14"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
@@ -1329,10 +1363,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
@@ -1340,10 +1374,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
@@ -1351,10 +1385,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="14"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
@@ -1362,10 +1396,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.8784722222222221</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.0381944444444444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
@@ -1373,7 +1407,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.8784722222222221</v>
+        <v>1.0381944444444444</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1458,13 +1492,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9158116-24D5-4EF5-8683-AFC41034659B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDBB6A-FA8B-4416-B02A-C0709250D5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Dato</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Fremstilling af SD0802</t>
+  </si>
+  <si>
+    <t>Test med junit</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,15 +1242,27 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
+      <c r="A18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="12">
+        <v>43892</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1259,7 +1274,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1271,7 +1286,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1283,7 +1298,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1295,7 +1310,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1307,7 +1322,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1319,7 +1334,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1330,7 +1345,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1341,7 +1356,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1352,7 +1367,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1363,7 +1378,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1374,7 +1389,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1385,7 +1400,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1396,7 +1411,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1407,7 +1422,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.0381944444444444</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDBB6A-FA8B-4416-B02A-C0709250D5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7243E80-3DEB-4C67-BA6D-09A4F7CEC9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Dato</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Test med junit</t>
+  </si>
+  <si>
+    <t>Retning af OC 0804</t>
+  </si>
+  <si>
+    <t>SD for 0803</t>
   </si>
 </sst>
 </file>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E18" sqref="A18:E18"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,39 +1272,77 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43893</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>1.0763888888888888</v>
+        <v>1.1458333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="12">
+        <v>43893</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="12">
+        <v>43893</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.0277777777777679E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1310,7 +1354,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1322,7 +1366,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1334,7 +1378,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1345,7 +1389,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1356,7 +1400,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1367,7 +1411,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1378,7 +1422,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1389,7 +1433,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1400,7 +1444,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1411,7 +1455,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1422,7 +1466,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.0763888888888888</v>
+        <v>1.2986111111111109</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7243E80-3DEB-4C67-BA6D-09A4F7CEC9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CEF4E-666E-48DC-AD8B-552A78B577DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Dato</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>SD for 0803</t>
+  </si>
+  <si>
+    <t>Test med Junit</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1028,9 @@
       <c r="A9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="12">
         <v>43887</v>
       </c>
@@ -1097,7 +1102,9 @@
       <c r="A12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="12">
         <v>43887</v>
       </c>
@@ -1121,7 +1128,9 @@
       <c r="A13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="12">
         <v>43888</v>
       </c>
@@ -1145,7 +1154,9 @@
       <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="12">
         <v>43889</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="12">
         <v>43892</v>
@@ -1226,7 +1237,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="12">
         <v>43892</v>
@@ -1251,7 +1262,9 @@
       <c r="A18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="12">
         <v>43892</v>
       </c>
@@ -1301,7 +1314,9 @@
       <c r="A20" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="12">
         <v>43893</v>
       </c>
@@ -1325,7 +1340,9 @@
       <c r="A21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="12">
         <v>43893</v>
       </c>
@@ -1346,15 +1363,29 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
+      <c r="A22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12">
+        <v>43899</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1366,7 +1397,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1378,7 +1409,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1389,7 +1420,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1400,7 +1431,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1411,7 +1442,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1422,7 +1453,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1433,7 +1464,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1444,7 +1475,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1455,7 +1486,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1466,7 +1497,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.2986111111111109</v>
+        <v>1.6111111111111109</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CEF4E-666E-48DC-AD8B-552A78B577DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E80E3-D281-4205-9648-E1EC12096341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Dato</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Test med Junit</t>
+  </si>
+  <si>
+    <t>Review af OC0601, OC0602, OC0603</t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,27 +1392,55 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="14"/>
+      <c r="A23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="14">
+        <v>43900</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.6111111111111109</v>
+        <v>1.7569444444444442</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
+      <c r="A24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="14">
+        <v>43900</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1420,7 +1451,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1431,7 +1462,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1442,7 +1473,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1453,7 +1484,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1464,7 +1495,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1475,7 +1506,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1486,7 +1517,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1497,7 +1528,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.6111111111111109</v>
+        <v>1.8402777777777777</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
+++ b/08 Project Management/Tidsregistrering/PM13 Tidsregistrering-Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E80E3-D281-4205-9648-E1EC12096341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451BD8CF-54F9-4AC0-B5C5-A5620E61B77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Dato</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Review af OC0601, OC0602, OC0603</t>
+  </si>
+  <si>
+    <t>Lavet SD0601 og DCD 0601</t>
+  </si>
+  <si>
+    <t>Lavet SD0601 og DCD 0602</t>
+  </si>
+  <si>
+    <t>Lavet SD0601 og DCD 0603</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +281,12 @@
     <font>
       <b/>
       <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -807,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,36 +1459,78 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="14"/>
+      <c r="A25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="14">
+        <v>43901</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.8402777777777777</v>
+        <v>2.0694444444444442</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="14"/>
+      <c r="A26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="14">
+        <v>43901</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.625</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.8402777777777777</v>
+        <v>2.0902777777777777</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="14"/>
+      <c r="A27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="14">
+        <v>43901</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.8402777777777777</v>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1484,7 +1541,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.8402777777777777</v>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1495,7 +1552,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.8402777777777777</v>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1506,7 +1563,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.8402777777777777</v>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1517,7 +1574,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.8402777777777777</v>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1528,7 +1585,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.8402777777777777</v>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1580,6 +1637,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
       <formula1>Roller</formula1>
